--- a/TestData/receivePay_data.xlsx
+++ b/TestData/receivePay_data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>${user}</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${amount} </t>
   </si>
 </sst>
 </file>
@@ -684,11 +687,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1039,25 +1039,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1093,7 +1093,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1129,7 +1129,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -1137,10 +1137,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1172,18 +1172,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1195,37 +1198,31 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
